--- a/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -5,28 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="定时器" sheetId="10" r:id="rId2"/>
-    <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
-    <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
-    <sheet name="配置文件（预发布环境）" sheetId="7" r:id="rId5"/>
-    <sheet name="配置文件（生产环境）" sheetId="4" r:id="rId6"/>
-    <sheet name="配置文件（公测环境）" sheetId="6" r:id="rId7"/>
-    <sheet name="数据修复" sheetId="2" r:id="rId8"/>
+    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
+    <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
+    <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
+    <sheet name="042 配置文件（预发布环境）" sheetId="7" r:id="rId5"/>
+    <sheet name="043 配置文件（生产环境）" sheetId="4" r:id="rId6"/>
+    <sheet name="044 配置文件（公测环境）" sheetId="6" r:id="rId7"/>
+    <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本X.X.X 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -1316,36 +1316,36 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.88671875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1434,7 +1434,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1458,7 +1458,7 @@
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1482,7 +1482,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1506,7 +1506,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1530,7 +1530,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1554,7 +1554,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1578,7 +1578,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1602,7 +1602,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1626,7 +1626,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1650,7 +1650,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1674,7 +1674,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1698,7 +1698,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1722,7 +1722,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1746,7 +1746,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1770,7 +1770,7 @@
       <c r="U16" s="55"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1794,7 +1794,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1817,7 +1817,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1840,7 +1840,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1863,7 +1863,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1886,7 +1886,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1909,7 +1909,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1932,7 +1932,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1955,7 +1955,7 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1978,7 +1978,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2001,7 +2001,7 @@
       <c r="T26" s="61"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2024,7 +2024,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2047,7 +2047,7 @@
       <c r="T28" s="60"/>
       <c r="U28" s="59"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2070,7 +2070,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2093,7 +2093,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2116,7 +2116,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2139,7 +2139,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2162,7 +2162,7 @@
       <c r="T33" s="60"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2187,7 +2187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2210,7 +2210,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2233,7 +2233,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2256,7 +2256,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2279,7 +2279,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2302,7 +2302,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2325,7 +2325,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2348,7 +2348,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2371,7 +2371,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2394,7 +2394,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2417,7 +2417,7 @@
       <c r="T44" s="44"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2440,7 +2440,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2463,7 +2463,7 @@
       <c r="T46" s="56"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2486,7 +2486,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2509,7 +2509,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2532,7 +2532,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2555,7 +2555,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2578,7 +2578,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2601,7 +2601,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2624,7 +2624,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2647,7 +2647,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2670,7 +2670,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2693,7 +2693,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2716,7 +2716,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2739,7 +2739,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2762,7 +2762,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2785,7 +2785,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2808,7 +2808,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2831,7 +2831,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2854,7 +2854,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2877,7 +2877,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2900,7 +2900,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2923,7 +2923,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2946,7 +2946,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -2969,7 +2969,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -2992,7 +2992,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3015,7 +3015,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3038,7 +3038,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3061,7 +3061,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3084,7 +3084,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3107,7 +3107,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3130,7 +3130,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3153,7 +3153,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3176,7 +3176,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3199,7 +3199,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3222,7 +3222,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3245,7 +3245,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3268,7 +3268,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3291,7 +3291,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3314,7 +3314,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3337,7 +3337,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3360,7 +3360,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3383,7 +3383,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3406,7 +3406,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3429,7 +3429,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3452,7 +3452,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3475,7 +3475,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3498,7 +3498,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3521,7 +3521,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3544,7 +3544,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3567,7 +3567,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3590,7 +3590,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3613,7 +3613,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3636,7 +3636,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3659,7 +3659,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3682,7 +3682,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3705,7 +3705,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3728,7 +3728,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3751,7 +3751,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3774,7 +3774,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3797,7 +3797,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3820,7 +3820,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3843,7 +3843,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3866,7 +3866,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3889,7 +3889,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3912,7 +3912,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3935,7 +3935,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -3958,7 +3958,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -3981,7 +3981,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4004,7 +4004,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4027,7 +4027,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4050,7 +4050,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4073,7 +4073,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4096,7 +4096,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4119,7 +4119,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4142,7 +4142,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4165,7 +4165,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4188,7 +4188,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4211,7 +4211,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4234,7 +4234,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4257,7 +4257,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4280,7 +4280,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4303,7 +4303,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4326,7 +4326,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4349,7 +4349,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4372,7 +4372,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4395,7 +4395,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4418,7 +4418,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4441,7 +4441,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4464,7 +4464,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4487,7 +4487,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4510,7 +4510,7 @@
       <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4530,7 +4530,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4550,7 +4550,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4570,7 +4570,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4590,7 +4590,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4610,7 +4610,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4630,7 +4630,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4650,7 +4650,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4670,7 +4670,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4690,7 +4690,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4710,7 +4710,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4730,7 +4730,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4750,7 +4750,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4770,7 +4770,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4790,7 +4790,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4810,7 +4810,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4830,7 +4830,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4850,7 +4850,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4870,7 +4870,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4890,7 +4890,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4910,7 +4910,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4930,7 +4930,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -4950,7 +4950,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -4970,7 +4970,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -4990,7 +4990,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5010,7 +5010,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5030,7 +5030,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5050,7 +5050,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5070,7 +5070,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5090,7 +5090,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5110,7 +5110,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5130,7 +5130,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5150,7 +5150,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5170,7 +5170,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5190,7 +5190,7 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5245,30 +5245,30 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5344,7 +5344,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5364,7 +5364,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5395,22 +5395,22 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="20"/>
@@ -5473,7 +5473,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="20"/>
@@ -5486,7 +5486,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="20"/>
@@ -5499,7 +5499,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="20"/>
@@ -5512,7 +5512,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="20"/>
@@ -5525,7 +5525,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="20"/>
@@ -5538,7 +5538,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="20"/>
@@ -5551,7 +5551,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="20"/>
@@ -5564,7 +5564,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5598,22 +5598,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5645,7 +5645,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5701,7 +5701,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5716,7 +5716,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5731,7 +5731,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5746,7 +5746,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5761,7 +5761,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5776,7 +5776,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5791,7 +5791,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5806,7 +5806,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5821,7 +5821,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5836,7 +5836,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5851,7 +5851,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5866,7 +5866,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5912,22 +5912,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5959,7 +5959,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6015,7 +6015,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6030,7 +6030,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6045,7 +6045,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6060,7 +6060,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6075,7 +6075,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6090,7 +6090,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6105,7 +6105,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6120,7 +6120,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6135,7 +6135,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6150,7 +6150,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6165,7 +6165,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6180,7 +6180,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6226,22 +6226,22 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6273,7 +6273,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6329,7 +6329,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6344,7 +6344,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6359,7 +6359,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6374,7 +6374,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6389,7 +6389,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6404,7 +6404,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6419,7 +6419,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6434,7 +6434,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6449,7 +6449,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6464,7 +6464,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6479,7 +6479,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6494,7 +6494,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6540,24 +6540,24 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6589,7 +6589,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6645,7 +6645,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6660,7 +6660,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6675,7 +6675,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6690,7 +6690,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6705,7 +6705,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6720,7 +6720,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6735,7 +6735,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6750,7 +6750,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6765,7 +6765,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6780,7 +6780,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6795,7 +6795,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6810,7 +6810,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6853,21 +6853,21 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6903,7 +6903,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6913,7 +6913,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6923,7 +6923,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6933,7 +6933,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6943,7 +6943,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6953,7 +6953,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6963,7 +6963,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6973,7 +6973,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6983,7 +6983,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6993,7 +6993,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7003,7 +7003,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7013,7 +7013,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7023,7 +7023,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7033,7 +7033,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7043,7 +7043,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7053,7 +7053,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7063,7 +7063,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$V$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>配置汇总</t>
@@ -251,6 +247,10 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,39 +1313,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="12" style="34" customWidth="1"/>
-    <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="12.44140625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
+    <col min="18" max="19" width="12" style="34" customWidth="1"/>
+    <col min="20" max="20" width="17" style="34" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" style="34" customWidth="1"/>
+    <col min="22" max="22" width="41.88671875" style="33" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1398,19 +1398,22 @@
         <v>16</v>
       </c>
       <c r="R1" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1430,11 +1433,12 @@
       <c r="Q2" s="47"/>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T2" s="44"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54"/>
+    </row>
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1454,11 +1458,12 @@
       <c r="Q3" s="47"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="54"/>
-    </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="44"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1478,11 +1483,12 @@
       <c r="Q4" s="47"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
-    </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T4" s="44"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="54"/>
+    </row>
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1502,11 +1508,12 @@
       <c r="Q5" s="47"/>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T5" s="44"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="54"/>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1526,11 +1533,12 @@
       <c r="Q6" s="47"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="54"/>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T6" s="44"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="54"/>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1550,11 +1558,12 @@
       <c r="Q7" s="47"/>
       <c r="R7" s="44"/>
       <c r="S7" s="44"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T7" s="44"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1574,11 +1583,12 @@
       <c r="Q8" s="47"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T8" s="44"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1598,11 +1608,12 @@
       <c r="Q9" s="47"/>
       <c r="R9" s="56"/>
       <c r="S9" s="56"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T9" s="56"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1622,11 +1633,12 @@
       <c r="Q10" s="47"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T10" s="44"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1646,11 +1658,12 @@
       <c r="Q11" s="47"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="54"/>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T11" s="44"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="54"/>
+    </row>
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1670,11 +1683,12 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T12" s="44"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1694,11 +1708,12 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T13" s="44"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1718,11 +1733,12 @@
       <c r="Q14" s="47"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="54"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T14" s="44"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1743,10 +1759,11 @@
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U15" s="44"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1767,10 +1784,11 @@
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="54"/>
-    </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U16" s="44"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1791,10 +1809,11 @@
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="54"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U17" s="44"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1815,9 +1834,10 @@
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1838,9 +1858,10 @@
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U19" s="44"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1861,9 +1882,10 @@
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="44"/>
+      <c r="V20" s="45"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1884,9 +1906,10 @@
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U21" s="44"/>
+      <c r="V21" s="55"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1907,9 +1930,10 @@
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U22" s="44"/>
+      <c r="V22" s="55"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1930,9 +1954,10 @@
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
-      <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U23" s="44"/>
+      <c r="V23" s="55"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1953,9 +1978,10 @@
       <c r="R24" s="58"/>
       <c r="S24" s="58"/>
       <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1976,9 +2002,10 @@
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
       <c r="T25" s="60"/>
-      <c r="U25" s="59"/>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U25" s="60"/>
+      <c r="V25" s="59"/>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -1998,10 +2025,11 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="59"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T26" s="60"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="59"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2022,9 +2050,10 @@
       <c r="R27" s="60"/>
       <c r="S27" s="60"/>
       <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U27" s="60"/>
+      <c r="V27" s="59"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2045,9 +2074,10 @@
       <c r="R28" s="60"/>
       <c r="S28" s="60"/>
       <c r="T28" s="60"/>
-      <c r="U28" s="59"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U28" s="60"/>
+      <c r="V28" s="59"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2068,9 +2098,10 @@
       <c r="R29" s="56"/>
       <c r="S29" s="56"/>
       <c r="T29" s="56"/>
-      <c r="U29" s="47"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U29" s="56"/>
+      <c r="V29" s="47"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2091,9 +2122,10 @@
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="55"/>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U30" s="44"/>
+      <c r="V30" s="55"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2114,9 +2146,10 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="55"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U31" s="44"/>
+      <c r="V31" s="55"/>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2137,9 +2170,10 @@
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
-      <c r="U32" s="55"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U32" s="44"/>
+      <c r="V32" s="55"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2160,9 +2194,10 @@
       <c r="R33" s="60"/>
       <c r="S33" s="60"/>
       <c r="T33" s="60"/>
-      <c r="U33" s="59"/>
-    </row>
-    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="U33" s="60"/>
+      <c r="V33" s="59"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2183,11 +2218,10 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U34" s="44"/>
+      <c r="V34" s="53"/>
+    </row>
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2208,9 +2242,10 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="55"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U35" s="44"/>
+      <c r="V35" s="55"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2231,9 +2266,10 @@
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="55"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U36" s="44"/>
+      <c r="V36" s="55"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2254,9 +2290,10 @@
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="55"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U37" s="44"/>
+      <c r="V37" s="55"/>
+    </row>
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2277,9 +2314,10 @@
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="55"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U38" s="44"/>
+      <c r="V38" s="55"/>
+    </row>
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2300,9 +2338,10 @@
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
-      <c r="U39" s="55"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U39" s="44"/>
+      <c r="V39" s="55"/>
+    </row>
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2323,9 +2362,10 @@
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
-      <c r="U40" s="55"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U40" s="44"/>
+      <c r="V40" s="55"/>
+    </row>
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2346,9 +2386,10 @@
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
-      <c r="U41" s="55"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U41" s="44"/>
+      <c r="V41" s="55"/>
+    </row>
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2369,9 +2410,10 @@
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="55"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U42" s="44"/>
+      <c r="V42" s="55"/>
+    </row>
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2392,9 +2434,10 @@
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="55"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U43" s="44"/>
+      <c r="V43" s="55"/>
+    </row>
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2415,9 +2458,10 @@
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
-      <c r="U44" s="55"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U44" s="44"/>
+      <c r="V44" s="55"/>
+    </row>
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2438,9 +2482,10 @@
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
       <c r="T45" s="56"/>
-      <c r="U45" s="55"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U45" s="56"/>
+      <c r="V45" s="55"/>
+    </row>
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2461,9 +2506,10 @@
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
       <c r="T46" s="56"/>
-      <c r="U46" s="55"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U46" s="56"/>
+      <c r="V46" s="55"/>
+    </row>
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2484,9 +2530,10 @@
       <c r="R47" s="44"/>
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+    </row>
+    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2507,9 +2554,10 @@
       <c r="R48" s="44"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
-      <c r="U48" s="45"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+    </row>
+    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2530,9 +2578,10 @@
       <c r="R49" s="44"/>
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U49" s="44"/>
+      <c r="V49" s="45"/>
+    </row>
+    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2553,9 +2602,10 @@
       <c r="R50" s="44"/>
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
-      <c r="U50" s="45"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U50" s="44"/>
+      <c r="V50" s="45"/>
+    </row>
+    <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2576,9 +2626,10 @@
       <c r="R51" s="44"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
-      <c r="U51" s="45"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U51" s="44"/>
+      <c r="V51" s="45"/>
+    </row>
+    <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2599,9 +2650,10 @@
       <c r="R52" s="44"/>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
-      <c r="U52" s="45"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U52" s="44"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2622,9 +2674,10 @@
       <c r="R53" s="44"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
-      <c r="U53" s="45"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U53" s="44"/>
+      <c r="V53" s="45"/>
+    </row>
+    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2645,9 +2698,10 @@
       <c r="R54" s="44"/>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
-      <c r="U54" s="45"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U54" s="44"/>
+      <c r="V54" s="45"/>
+    </row>
+    <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2668,9 +2722,10 @@
       <c r="R55" s="44"/>
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U55" s="44"/>
+      <c r="V55" s="45"/>
+    </row>
+    <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2691,9 +2746,10 @@
       <c r="R56" s="44"/>
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
-      <c r="U56" s="45"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U56" s="44"/>
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2714,9 +2770,10 @@
       <c r="R57" s="44"/>
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
-      <c r="U57" s="45"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U57" s="44"/>
+      <c r="V57" s="45"/>
+    </row>
+    <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2737,9 +2794,10 @@
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
-      <c r="U58" s="45"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U58" s="44"/>
+      <c r="V58" s="45"/>
+    </row>
+    <row r="59" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2760,9 +2818,10 @@
       <c r="R59" s="44"/>
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
-      <c r="U59" s="45"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U59" s="44"/>
+      <c r="V59" s="45"/>
+    </row>
+    <row r="60" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2783,9 +2842,10 @@
       <c r="R60" s="44"/>
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
-      <c r="U60" s="45"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U60" s="44"/>
+      <c r="V60" s="45"/>
+    </row>
+    <row r="61" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2806,9 +2866,10 @@
       <c r="R61" s="44"/>
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U61" s="44"/>
+      <c r="V61" s="45"/>
+    </row>
+    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2829,9 +2890,10 @@
       <c r="R62" s="44"/>
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U62" s="44"/>
+      <c r="V62" s="45"/>
+    </row>
+    <row r="63" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2852,9 +2914,10 @@
       <c r="R63" s="44"/>
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
-      <c r="U63" s="45"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U63" s="44"/>
+      <c r="V63" s="45"/>
+    </row>
+    <row r="64" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2875,9 +2938,10 @@
       <c r="R64" s="44"/>
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
-      <c r="U64" s="45"/>
-    </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U64" s="44"/>
+      <c r="V64" s="45"/>
+    </row>
+    <row r="65" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2898,9 +2962,10 @@
       <c r="R65" s="44"/>
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
-      <c r="U65" s="45"/>
-    </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U65" s="44"/>
+      <c r="V65" s="45"/>
+    </row>
+    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2921,9 +2986,10 @@
       <c r="R66" s="44"/>
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
-      <c r="U66" s="45"/>
-    </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U66" s="44"/>
+      <c r="V66" s="45"/>
+    </row>
+    <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2944,9 +3010,10 @@
       <c r="R67" s="44"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-    </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U67" s="44"/>
+      <c r="V67" s="45"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -2967,9 +3034,10 @@
       <c r="R68" s="44"/>
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
-      <c r="U68" s="45"/>
-    </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U68" s="44"/>
+      <c r="V68" s="45"/>
+    </row>
+    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -2990,9 +3058,10 @@
       <c r="R69" s="44"/>
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
-      <c r="U69" s="45"/>
-    </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U69" s="44"/>
+      <c r="V69" s="45"/>
+    </row>
+    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3013,9 +3082,10 @@
       <c r="R70" s="44"/>
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
-      <c r="U70" s="45"/>
-    </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U70" s="44"/>
+      <c r="V70" s="45"/>
+    </row>
+    <row r="71" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3036,9 +3106,10 @@
       <c r="R71" s="44"/>
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
-      <c r="U71" s="45"/>
-    </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U71" s="44"/>
+      <c r="V71" s="45"/>
+    </row>
+    <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3059,9 +3130,10 @@
       <c r="R72" s="44"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
-      <c r="U72" s="45"/>
-    </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U72" s="44"/>
+      <c r="V72" s="45"/>
+    </row>
+    <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3082,9 +3154,10 @@
       <c r="R73" s="44"/>
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
-      <c r="U73" s="45"/>
-    </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U73" s="44"/>
+      <c r="V73" s="45"/>
+    </row>
+    <row r="74" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3105,9 +3178,10 @@
       <c r="R74" s="44"/>
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
-      <c r="U74" s="45"/>
-    </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U74" s="44"/>
+      <c r="V74" s="45"/>
+    </row>
+    <row r="75" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3128,9 +3202,10 @@
       <c r="R75" s="44"/>
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
-      <c r="U75" s="45"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U75" s="44"/>
+      <c r="V75" s="45"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3151,9 +3226,10 @@
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
-      <c r="U76" s="45"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U76" s="44"/>
+      <c r="V76" s="45"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3174,9 +3250,10 @@
       <c r="R77" s="44"/>
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
-      <c r="U77" s="45"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U77" s="44"/>
+      <c r="V77" s="45"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3197,9 +3274,10 @@
       <c r="R78" s="44"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
-      <c r="U78" s="45"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U78" s="44"/>
+      <c r="V78" s="45"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3220,9 +3298,10 @@
       <c r="R79" s="44"/>
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
-      <c r="U79" s="45"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U79" s="44"/>
+      <c r="V79" s="45"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3243,9 +3322,10 @@
       <c r="R80" s="44"/>
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
-      <c r="U80" s="45"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U80" s="44"/>
+      <c r="V80" s="45"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3266,9 +3346,10 @@
       <c r="R81" s="44"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
-      <c r="U81" s="45"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U81" s="44"/>
+      <c r="V81" s="45"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3289,9 +3370,10 @@
       <c r="R82" s="44"/>
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
-      <c r="U82" s="45"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U82" s="44"/>
+      <c r="V82" s="45"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3312,9 +3394,10 @@
       <c r="R83" s="44"/>
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
-      <c r="U83" s="45"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U83" s="44"/>
+      <c r="V83" s="45"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3335,9 +3418,10 @@
       <c r="R84" s="44"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
-      <c r="U84" s="45"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U84" s="44"/>
+      <c r="V84" s="45"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3358,9 +3442,10 @@
       <c r="R85" s="44"/>
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
-      <c r="U85" s="45"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U85" s="44"/>
+      <c r="V85" s="45"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3381,9 +3466,10 @@
       <c r="R86" s="44"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
-      <c r="U86" s="45"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U86" s="44"/>
+      <c r="V86" s="45"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3404,9 +3490,10 @@
       <c r="R87" s="44"/>
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
-      <c r="U87" s="45"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U87" s="44"/>
+      <c r="V87" s="45"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3427,9 +3514,10 @@
       <c r="R88" s="44"/>
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
-      <c r="U88" s="45"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U88" s="44"/>
+      <c r="V88" s="45"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3450,9 +3538,10 @@
       <c r="R89" s="44"/>
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
-      <c r="U89" s="45"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U89" s="44"/>
+      <c r="V89" s="45"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3473,9 +3562,10 @@
       <c r="R90" s="44"/>
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
-      <c r="U90" s="45"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U90" s="44"/>
+      <c r="V90" s="45"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3496,9 +3586,10 @@
       <c r="R91" s="44"/>
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
-      <c r="U91" s="45"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U91" s="44"/>
+      <c r="V91" s="45"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3519,9 +3610,10 @@
       <c r="R92" s="44"/>
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
-      <c r="U92" s="45"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U92" s="44"/>
+      <c r="V92" s="45"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3542,9 +3634,10 @@
       <c r="R93" s="44"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
-      <c r="U93" s="45"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U93" s="44"/>
+      <c r="V93" s="45"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3565,9 +3658,10 @@
       <c r="R94" s="44"/>
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
-      <c r="U94" s="45"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U94" s="44"/>
+      <c r="V94" s="45"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3588,9 +3682,10 @@
       <c r="R95" s="44"/>
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
-      <c r="U95" s="45"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U95" s="44"/>
+      <c r="V95" s="45"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3611,9 +3706,10 @@
       <c r="R96" s="44"/>
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
-      <c r="U96" s="45"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U96" s="44"/>
+      <c r="V96" s="45"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3634,9 +3730,10 @@
       <c r="R97" s="44"/>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
-      <c r="U97" s="45"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U97" s="44"/>
+      <c r="V97" s="45"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3657,9 +3754,10 @@
       <c r="R98" s="44"/>
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
-      <c r="U98" s="45"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U98" s="44"/>
+      <c r="V98" s="45"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3680,9 +3778,10 @@
       <c r="R99" s="44"/>
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
-      <c r="U99" s="45"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U99" s="44"/>
+      <c r="V99" s="45"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3703,9 +3802,10 @@
       <c r="R100" s="44"/>
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
-      <c r="U100" s="45"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U100" s="44"/>
+      <c r="V100" s="45"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3726,9 +3826,10 @@
       <c r="R101" s="44"/>
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
-      <c r="U101" s="45"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U101" s="44"/>
+      <c r="V101" s="45"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3749,9 +3850,10 @@
       <c r="R102" s="44"/>
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
-      <c r="U102" s="45"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U102" s="44"/>
+      <c r="V102" s="45"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3772,9 +3874,10 @@
       <c r="R103" s="44"/>
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
-      <c r="U103" s="45"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U103" s="44"/>
+      <c r="V103" s="45"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3795,9 +3898,10 @@
       <c r="R104" s="44"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
-      <c r="U104" s="45"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U104" s="44"/>
+      <c r="V104" s="45"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3818,9 +3922,10 @@
       <c r="R105" s="44"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
-      <c r="U105" s="45"/>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U105" s="44"/>
+      <c r="V105" s="45"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3841,9 +3946,10 @@
       <c r="R106" s="44"/>
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
-      <c r="U106" s="45"/>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U106" s="44"/>
+      <c r="V106" s="45"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3864,9 +3970,10 @@
       <c r="R107" s="44"/>
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
-      <c r="U107" s="45"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U107" s="44"/>
+      <c r="V107" s="45"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3887,9 +3994,10 @@
       <c r="R108" s="44"/>
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
-      <c r="U108" s="45"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U108" s="44"/>
+      <c r="V108" s="45"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3910,9 +4018,10 @@
       <c r="R109" s="44"/>
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
-      <c r="U109" s="45"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U109" s="44"/>
+      <c r="V109" s="45"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3933,9 +4042,10 @@
       <c r="R110" s="44"/>
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
-      <c r="U110" s="45"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U110" s="44"/>
+      <c r="V110" s="45"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -3956,9 +4066,10 @@
       <c r="R111" s="44"/>
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
-      <c r="U111" s="45"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U111" s="44"/>
+      <c r="V111" s="45"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -3979,9 +4090,10 @@
       <c r="R112" s="44"/>
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
-      <c r="U112" s="45"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U112" s="44"/>
+      <c r="V112" s="45"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4002,9 +4114,10 @@
       <c r="R113" s="44"/>
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
-      <c r="U113" s="45"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U113" s="44"/>
+      <c r="V113" s="45"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4025,9 +4138,10 @@
       <c r="R114" s="44"/>
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
-      <c r="U114" s="45"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U114" s="44"/>
+      <c r="V114" s="45"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4048,9 +4162,10 @@
       <c r="R115" s="44"/>
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
-      <c r="U115" s="45"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U115" s="44"/>
+      <c r="V115" s="45"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4071,9 +4186,10 @@
       <c r="R116" s="44"/>
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
-      <c r="U116" s="45"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U116" s="44"/>
+      <c r="V116" s="45"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4094,9 +4210,10 @@
       <c r="R117" s="44"/>
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
-      <c r="U117" s="45"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U117" s="44"/>
+      <c r="V117" s="45"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4117,9 +4234,10 @@
       <c r="R118" s="44"/>
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
-      <c r="U118" s="45"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U118" s="44"/>
+      <c r="V118" s="45"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4140,9 +4258,10 @@
       <c r="R119" s="44"/>
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
-      <c r="U119" s="45"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U119" s="44"/>
+      <c r="V119" s="45"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4163,9 +4282,10 @@
       <c r="R120" s="44"/>
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
-      <c r="U120" s="45"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U120" s="44"/>
+      <c r="V120" s="45"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4186,9 +4306,10 @@
       <c r="R121" s="44"/>
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
-      <c r="U121" s="45"/>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U121" s="44"/>
+      <c r="V121" s="45"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4209,9 +4330,10 @@
       <c r="R122" s="44"/>
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
-      <c r="U122" s="45"/>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U122" s="44"/>
+      <c r="V122" s="45"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4232,9 +4354,10 @@
       <c r="R123" s="44"/>
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
-      <c r="U123" s="45"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U123" s="44"/>
+      <c r="V123" s="45"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4255,9 +4378,10 @@
       <c r="R124" s="44"/>
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
-      <c r="U124" s="45"/>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U124" s="44"/>
+      <c r="V124" s="45"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4278,9 +4402,10 @@
       <c r="R125" s="44"/>
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
-      <c r="U125" s="45"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U125" s="44"/>
+      <c r="V125" s="45"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4301,9 +4426,10 @@
       <c r="R126" s="44"/>
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
-      <c r="U126" s="45"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U126" s="44"/>
+      <c r="V126" s="45"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4324,9 +4450,10 @@
       <c r="R127" s="44"/>
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
-      <c r="U127" s="45"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U127" s="44"/>
+      <c r="V127" s="45"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4347,9 +4474,10 @@
       <c r="R128" s="44"/>
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
-      <c r="U128" s="45"/>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U128" s="44"/>
+      <c r="V128" s="45"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4370,9 +4498,10 @@
       <c r="R129" s="44"/>
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
-      <c r="U129" s="45"/>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U129" s="44"/>
+      <c r="V129" s="45"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4393,9 +4522,10 @@
       <c r="R130" s="44"/>
       <c r="S130" s="44"/>
       <c r="T130" s="44"/>
-      <c r="U130" s="45"/>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U130" s="44"/>
+      <c r="V130" s="45"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4416,9 +4546,10 @@
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
       <c r="T131" s="44"/>
-      <c r="U131" s="45"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U131" s="44"/>
+      <c r="V131" s="45"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4439,9 +4570,10 @@
       <c r="R132" s="44"/>
       <c r="S132" s="44"/>
       <c r="T132" s="44"/>
-      <c r="U132" s="45"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U132" s="44"/>
+      <c r="V132" s="45"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4462,9 +4594,10 @@
       <c r="R133" s="44"/>
       <c r="S133" s="44"/>
       <c r="T133" s="44"/>
-      <c r="U133" s="45"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U133" s="44"/>
+      <c r="V133" s="45"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4485,9 +4618,10 @@
       <c r="R134" s="44"/>
       <c r="S134" s="44"/>
       <c r="T134" s="44"/>
-      <c r="U134" s="45"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U134" s="44"/>
+      <c r="V134" s="45"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4508,9 +4642,10 @@
       <c r="R135" s="44"/>
       <c r="S135" s="44"/>
       <c r="T135" s="44"/>
-      <c r="U135" s="45"/>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U135" s="44"/>
+      <c r="V135" s="45"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4528,9 +4663,9 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
-      <c r="U136" s="45"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V136" s="45"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4548,9 +4683,9 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
-      <c r="U137" s="45"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V137" s="45"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4568,9 +4703,9 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
-      <c r="U138" s="45"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V138" s="45"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4588,9 +4723,9 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
-      <c r="U139" s="45"/>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V139" s="45"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4608,9 +4743,9 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
-      <c r="U140" s="45"/>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V140" s="45"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4628,9 +4763,9 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
-      <c r="U141" s="45"/>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V141" s="45"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4648,9 +4783,9 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
-      <c r="U142" s="45"/>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V142" s="45"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4668,9 +4803,9 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
-      <c r="U143" s="45"/>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V143" s="45"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4688,9 +4823,9 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
-      <c r="U144" s="45"/>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V144" s="45"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4708,9 +4843,9 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
-      <c r="U145" s="45"/>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V145" s="45"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4728,9 +4863,9 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
-      <c r="U146" s="45"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V146" s="45"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4748,9 +4883,9 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
-      <c r="U147" s="45"/>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V147" s="45"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4768,9 +4903,9 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
-      <c r="U148" s="45"/>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V148" s="45"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4788,9 +4923,9 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
-      <c r="U149" s="45"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V149" s="45"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4808,9 +4943,9 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
-      <c r="U150" s="45"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V150" s="45"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4828,9 +4963,9 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
-      <c r="U151" s="45"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V151" s="45"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4848,9 +4983,9 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
-      <c r="U152" s="45"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V152" s="45"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4868,9 +5003,9 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
-      <c r="U153" s="45"/>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V153" s="45"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4888,9 +5023,9 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
-      <c r="U154" s="45"/>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V154" s="45"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4908,9 +5043,9 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
-      <c r="U155" s="45"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V155" s="45"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4928,9 +5063,9 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
-      <c r="U156" s="45"/>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V156" s="45"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -4948,9 +5083,9 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
-      <c r="U157" s="45"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V157" s="45"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -4968,9 +5103,9 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
-      <c r="U158" s="45"/>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V158" s="45"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -4988,9 +5123,9 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
-      <c r="U159" s="45"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V159" s="45"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5008,9 +5143,9 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
-      <c r="U160" s="45"/>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V160" s="45"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5028,9 +5163,9 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
-      <c r="U161" s="45"/>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V161" s="45"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5048,9 +5183,9 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
-      <c r="U162" s="45"/>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V162" s="45"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5068,9 +5203,9 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
-      <c r="U163" s="45"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V163" s="45"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5088,9 +5223,9 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
-      <c r="U164" s="45"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V164" s="45"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5108,9 +5243,9 @@
       <c r="O165" s="44"/>
       <c r="P165" s="46"/>
       <c r="Q165" s="45"/>
-      <c r="U165" s="45"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V165" s="45"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5128,9 +5263,9 @@
       <c r="O166" s="44"/>
       <c r="P166" s="46"/>
       <c r="Q166" s="45"/>
-      <c r="U166" s="45"/>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V166" s="45"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5148,9 +5283,9 @@
       <c r="O167" s="44"/>
       <c r="P167" s="46"/>
       <c r="Q167" s="45"/>
-      <c r="U167" s="45"/>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V167" s="45"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5168,9 +5303,9 @@
       <c r="O168" s="44"/>
       <c r="P168" s="46"/>
       <c r="Q168" s="45"/>
-      <c r="U168" s="45"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V168" s="45"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5188,9 +5323,9 @@
       <c r="O169" s="44"/>
       <c r="P169" s="46"/>
       <c r="Q169" s="45"/>
-      <c r="U169" s="45"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V169" s="45"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5208,7 +5343,7 @@
       <c r="O170" s="44"/>
       <c r="P170" s="46"/>
       <c r="Q170" s="45"/>
-      <c r="U170" s="45"/>
+      <c r="V170" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5216,10 +5351,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G1:G1048576 I1:I2 I5:I6 I9:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 U1:U1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5248,83 +5383,83 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="M1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="63" t="s">
+      <c r="P1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="Q1" s="63" t="s">
         <v>66</v>
-      </c>
-      <c r="Q1" s="63" t="s">
-        <v>67</v>
       </c>
       <c r="R1" s="63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5344,7 +5479,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5364,7 +5499,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5398,21 +5533,21 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -5425,42 +5560,42 @@
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="20"/>
@@ -5473,7 +5608,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="20"/>
@@ -5486,7 +5621,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="20"/>
@@ -5499,7 +5634,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="20"/>
@@ -5512,7 +5647,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="20"/>
@@ -5525,7 +5660,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="20"/>
@@ -5538,7 +5673,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="20"/>
@@ -5551,7 +5686,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="20"/>
@@ -5564,7 +5699,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5598,24 +5733,24 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -5630,7 +5765,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5645,48 +5780,48 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5701,7 +5836,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5716,7 +5851,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5731,7 +5866,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5746,7 +5881,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5761,7 +5896,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5776,7 +5911,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5791,7 +5926,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5806,7 +5941,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5821,7 +5956,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5836,7 +5971,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5851,7 +5986,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5866,7 +6001,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5912,24 +6047,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -5944,7 +6079,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5959,48 +6094,48 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6015,7 +6150,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6030,7 +6165,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6045,7 +6180,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6060,7 +6195,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6075,7 +6210,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6090,7 +6225,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6105,7 +6240,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6120,7 +6255,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6135,7 +6270,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6150,7 +6285,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6165,7 +6300,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6180,7 +6315,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6226,24 +6361,24 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -6258,7 +6393,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6273,48 +6408,48 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6329,7 +6464,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6344,7 +6479,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6359,7 +6494,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6374,7 +6509,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6389,7 +6524,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6404,7 +6539,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6419,7 +6554,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6434,7 +6569,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6449,7 +6584,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6464,7 +6599,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6479,7 +6614,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6494,7 +6629,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6540,26 +6675,26 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -6574,7 +6709,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6589,48 +6724,48 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6645,7 +6780,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6660,7 +6795,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6675,7 +6810,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6690,7 +6825,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6705,7 +6840,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6720,7 +6855,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6735,7 +6870,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6750,7 +6885,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6765,7 +6900,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6780,7 +6915,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6795,7 +6930,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6810,7 +6945,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6856,44 +6991,44 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6903,7 +7038,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6913,7 +7048,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6923,7 +7058,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6933,7 +7068,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6943,7 +7078,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6953,7 +7088,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6963,7 +7098,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6973,7 +7108,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6983,7 +7118,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6993,7 +7128,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7003,7 +7138,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7013,7 +7148,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7023,7 +7158,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7033,7 +7168,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7043,7 +7178,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7053,7 +7188,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7063,7 +7198,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/M 模板/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -252,12 +252,16 @@
     <t>JIRA ID</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>PM-308</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -426,6 +430,13 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -641,7 +652,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,8 +681,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,8 +944,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -942,6 +959,7 @@
     <cellStyle name="常规 5" xfId="9"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
@@ -1316,7 +1334,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1431,8 +1449,12 @@
       <c r="O2" s="47"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="47"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="R2" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="86">
+        <v>5119</v>
+      </c>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53"/>
@@ -5370,6 +5392,10 @@
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId2" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=5119"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
